--- a/report.xlsx
+++ b/report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="279">
   <si>
     <t/>
   </si>
@@ -19,10 +19,22 @@
     <t>Prepaid Daily Pulse</t>
   </si>
   <si>
+    <t>NaN %</t>
+  </si>
+  <si>
     <t>Total</t>
   </si>
   <si>
-    <t>SFID</t>
+    <t>67.15 %</t>
+  </si>
+  <si>
+    <t>71.55 %</t>
+  </si>
+  <si>
+    <t>21.86 %</t>
+  </si>
+  <si>
+    <t>16.80 %</t>
   </si>
   <si>
     <t>Company Name</t>
@@ -47,25 +59,12 @@
   </si>
   <si>
     <t>Jan-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comp
-3rd month (current month)</t>
-  </si>
-  <si>
-    <t>Ports In Percent</t>
-  </si>
-  <si>
-    <t>Prior Month Conversion Rate</t>
   </si>
   <si>
     <t xml:space="preserve">RPL
 Count</t>
   </si>
   <si>
-    <t>Conversion Rate</t>
-  </si>
-  <si>
     <t>Nb Network Solutions</t>
   </si>
   <si>
@@ -78,6 +77,18 @@
     <t>NY</t>
   </si>
   <si>
+    <t>70.18 %</t>
+  </si>
+  <si>
+    <t>68.18 %</t>
+  </si>
+  <si>
+    <t>15.10 %</t>
+  </si>
+  <si>
+    <t>7.24 %</t>
+  </si>
+  <si>
     <t>1020 Fairfield Ave</t>
   </si>
   <si>
@@ -87,42 +98,159 @@
     <t>CT</t>
   </si>
   <si>
+    <t>72.48 %</t>
+  </si>
+  <si>
+    <t>76.09 %</t>
+  </si>
+  <si>
+    <t>47.63 %</t>
+  </si>
+  <si>
+    <t>25.30 %</t>
+  </si>
+  <si>
     <t>414 W Main St</t>
   </si>
   <si>
     <t>Stamford</t>
   </si>
   <si>
+    <t>62.50 %</t>
+  </si>
+  <si>
+    <t>60.61 %</t>
+  </si>
+  <si>
+    <t>20.82 %</t>
+  </si>
+  <si>
+    <t>28.95 %</t>
+  </si>
+  <si>
     <t>32 Bedford Park Blvd</t>
   </si>
   <si>
     <t>Bronx</t>
   </si>
   <si>
+    <t>65.75 %</t>
+  </si>
+  <si>
+    <t>55.56 %</t>
+  </si>
+  <si>
+    <t>27.19 %</t>
+  </si>
+  <si>
+    <t>21.94 %</t>
+  </si>
+  <si>
     <t>563 E Tremont Ave</t>
   </si>
   <si>
+    <t>73.95 %</t>
+  </si>
+  <si>
+    <t>76.74 %</t>
+  </si>
+  <si>
+    <t>25.28 %</t>
+  </si>
+  <si>
+    <t>20.34 %</t>
+  </si>
+  <si>
     <t>544 East Fordham Rd</t>
   </si>
   <si>
+    <t>62.79 %</t>
+  </si>
+  <si>
+    <t>81.82 %</t>
+  </si>
+  <si>
+    <t>44.23 %</t>
+  </si>
+  <si>
+    <t>20.37 %</t>
+  </si>
+  <si>
     <t>873 E Tremont Ave</t>
   </si>
   <si>
+    <t>72.63 %</t>
+  </si>
+  <si>
+    <t>65.12 %</t>
+  </si>
+  <si>
+    <t>19.65 %</t>
+  </si>
+  <si>
+    <t>21.29 %</t>
+  </si>
+  <si>
     <t>71 E Kingsbridge Rd</t>
   </si>
   <si>
+    <t>77.85 %</t>
+  </si>
+  <si>
+    <t>66.15 %</t>
+  </si>
+  <si>
+    <t>28.71 %</t>
+  </si>
+  <si>
+    <t>28.64 %</t>
+  </si>
+  <si>
     <t>1757 University Ave</t>
   </si>
   <si>
+    <t>69.51 %</t>
+  </si>
+  <si>
+    <t>75.00 %</t>
+  </si>
+  <si>
+    <t>37.88 %</t>
+  </si>
+  <si>
+    <t>36.90 %</t>
+  </si>
+  <si>
     <t>1938 Nostrand Ave</t>
   </si>
   <si>
     <t>Brooklyn</t>
   </si>
   <si>
+    <t>61.45 %</t>
+  </si>
+  <si>
+    <t>42.54 %</t>
+  </si>
+  <si>
+    <t>43.01 %</t>
+  </si>
+  <si>
     <t>3011 Church Ave</t>
   </si>
   <si>
+    <t>82.35 %</t>
+  </si>
+  <si>
+    <t>77.14 %</t>
+  </si>
+  <si>
+    <t>26.16 %</t>
+  </si>
+  <si>
+    <t>22.29 %</t>
+  </si>
+  <si>
     <t>30 Mall Dr W</t>
   </si>
   <si>
@@ -132,175 +260,595 @@
     <t>NJ</t>
   </si>
   <si>
+    <t>82.05 %</t>
+  </si>
+  <si>
+    <t>72.22 %</t>
+  </si>
+  <si>
+    <t>62.76 %</t>
+  </si>
+  <si>
+    <t>37.50 %</t>
+  </si>
+  <si>
     <t>3186B 21st St</t>
   </si>
   <si>
     <t>Astoria</t>
   </si>
   <si>
+    <t>62.40 %</t>
+  </si>
+  <si>
+    <t>68.75 %</t>
+  </si>
+  <si>
+    <t>45.58 %</t>
+  </si>
+  <si>
+    <t>46.03 %</t>
+  </si>
+  <si>
     <t>4710 Broadway</t>
   </si>
   <si>
     <t>Long Island City</t>
   </si>
   <si>
+    <t>74.44 %</t>
+  </si>
+  <si>
+    <t>77.42 %</t>
+  </si>
+  <si>
+    <t>35.86 %</t>
+  </si>
+  <si>
+    <t>35.90 %</t>
+  </si>
+  <si>
     <t>87-72 Sutphin Blvd</t>
   </si>
   <si>
     <t>Jamaica</t>
   </si>
   <si>
+    <t>80.00 %</t>
+  </si>
+  <si>
+    <t>63.16 %</t>
+  </si>
+  <si>
+    <t>40.72 %</t>
+  </si>
+  <si>
+    <t>28.57 %</t>
+  </si>
+  <si>
     <t>9205 Jamaica Ave</t>
   </si>
   <si>
     <t>Woodhaven</t>
   </si>
   <si>
+    <t>65.94 %</t>
+  </si>
+  <si>
+    <t>67.92 %</t>
+  </si>
+  <si>
+    <t>39.57 %</t>
+  </si>
+  <si>
+    <t>30.72 %</t>
+  </si>
+  <si>
     <t>21-16 36th Ave</t>
   </si>
   <si>
+    <t>54.05 %</t>
+  </si>
+  <si>
+    <t>76.27 %</t>
+  </si>
+  <si>
+    <t>31.23 %</t>
+  </si>
+  <si>
+    <t>36.81 %</t>
+  </si>
+  <si>
     <t>82-06 Roosevelt Ave</t>
   </si>
   <si>
     <t>Jackson Heights</t>
   </si>
   <si>
+    <t>74.84 %</t>
+  </si>
+  <si>
+    <t>79.17 %</t>
+  </si>
+  <si>
+    <t>42.28 %</t>
+  </si>
+  <si>
+    <t>29.30 %</t>
+  </si>
+  <si>
     <t>45-11 Greenpoint Ave</t>
   </si>
   <si>
     <t>Sunnyside</t>
   </si>
   <si>
+    <t>85.71 %</t>
+  </si>
+  <si>
+    <t>69.70 %</t>
+  </si>
+  <si>
+    <t>24.63 %</t>
+  </si>
+  <si>
+    <t>26.19 %</t>
+  </si>
+  <si>
     <t>97-11 57th Ave</t>
   </si>
   <si>
     <t>Corona</t>
   </si>
   <si>
+    <t>77.91 %</t>
+  </si>
+  <si>
+    <t>91.18 %</t>
+  </si>
+  <si>
+    <t>31.06 %</t>
+  </si>
+  <si>
+    <t>21.21 %</t>
+  </si>
+  <si>
     <t>103-20 Roosevelt Ave.</t>
   </si>
   <si>
+    <t>78.42 %</t>
+  </si>
+  <si>
+    <t>73.91 %</t>
+  </si>
+  <si>
+    <t>31.72 %</t>
+  </si>
+  <si>
+    <t>20.72 %</t>
+  </si>
+  <si>
     <t>67 Park St</t>
   </si>
   <si>
     <t>Hartford</t>
   </si>
   <si>
+    <t>64.81 %</t>
+  </si>
+  <si>
+    <t>66.67 %</t>
+  </si>
+  <si>
+    <t>37.44 %</t>
+  </si>
+  <si>
+    <t>33.73 %</t>
+  </si>
+  <si>
     <t>639 Park st</t>
   </si>
   <si>
+    <t>78.70 %</t>
+  </si>
+  <si>
+    <t>70.27 %</t>
+  </si>
+  <si>
+    <t>40.58 %</t>
+  </si>
+  <si>
+    <t>40.23 %</t>
+  </si>
+  <si>
     <t>1234 St. Nicholas Ave</t>
   </si>
   <si>
     <t>new york</t>
   </si>
   <si>
+    <t>77.67 %</t>
+  </si>
+  <si>
+    <t>73.33 %</t>
+  </si>
+  <si>
+    <t>14.71 %</t>
+  </si>
+  <si>
+    <t>12.84 %</t>
+  </si>
+  <si>
     <t>238 2nd St</t>
   </si>
   <si>
     <t>Lakewood</t>
   </si>
   <si>
+    <t>81.76 %</t>
+  </si>
+  <si>
+    <t>61.11 %</t>
+  </si>
+  <si>
+    <t>17.48 %</t>
+  </si>
+  <si>
+    <t>11.18 %</t>
+  </si>
+  <si>
     <t>2520 US Highway 22 East</t>
   </si>
   <si>
     <t>Union</t>
   </si>
   <si>
+    <t>88.57 %</t>
+  </si>
+  <si>
+    <t>39.53 %</t>
+  </si>
+  <si>
     <t>1537 Atlantic Ave.</t>
   </si>
   <si>
     <t>Atlantic City</t>
   </si>
   <si>
+    <t>64.41 %</t>
+  </si>
+  <si>
+    <t>75.71 %</t>
+  </si>
+  <si>
+    <t>33.69 %</t>
+  </si>
+  <si>
+    <t>32.23 %</t>
+  </si>
+  <si>
     <t>2042B Rockaway Parkway</t>
   </si>
   <si>
+    <t>70.83 %</t>
+  </si>
+  <si>
+    <t>50.49 %</t>
+  </si>
+  <si>
     <t>1692 Pitkin Ave</t>
   </si>
   <si>
+    <t>64.19 %</t>
+  </si>
+  <si>
+    <t>67.59 %</t>
+  </si>
+  <si>
+    <t>37.53 %</t>
+  </si>
+  <si>
     <t>612 Castlehill Ave</t>
   </si>
   <si>
     <t>bronx</t>
   </si>
   <si>
+    <t>77.03 %</t>
+  </si>
+  <si>
+    <t>76.67 %</t>
+  </si>
+  <si>
+    <t>20.67 %</t>
+  </si>
+  <si>
+    <t>12.00 %</t>
+  </si>
+  <si>
     <t>1047 Westchester Ave</t>
   </si>
   <si>
+    <t>75.89 %</t>
+  </si>
+  <si>
+    <t>64.52 %</t>
+  </si>
+  <si>
+    <t>58.48 %</t>
+  </si>
+  <si>
+    <t>40.07 %</t>
+  </si>
+  <si>
     <t>197D Madison Street</t>
   </si>
   <si>
     <t>New York</t>
   </si>
   <si>
+    <t>79.84 %</t>
+  </si>
+  <si>
+    <t>77.05 %</t>
+  </si>
+  <si>
+    <t>28.63 %</t>
+  </si>
+  <si>
+    <t>22.35 %</t>
+  </si>
+  <si>
     <t>2012 2nd Ave</t>
   </si>
   <si>
+    <t>74.17 %</t>
+  </si>
+  <si>
+    <t>34.33 %</t>
+  </si>
+  <si>
+    <t>31.34 %</t>
+  </si>
+  <si>
     <t>924 Columbus Ave</t>
   </si>
   <si>
+    <t>76.29 %</t>
+  </si>
+  <si>
+    <t>65.57 %</t>
+  </si>
+  <si>
+    <t>31.38 %</t>
+  </si>
+  <si>
+    <t>26.22 %</t>
+  </si>
+  <si>
     <t>1261 Castle Hill Ave</t>
   </si>
   <si>
+    <t>79.28 %</t>
+  </si>
+  <si>
+    <t>79.41 %</t>
+  </si>
+  <si>
+    <t>25.19 %</t>
+  </si>
+  <si>
+    <t>12.92 %</t>
+  </si>
+  <si>
     <t>2043B Bartow Ave</t>
   </si>
   <si>
+    <t>78.26 %</t>
+  </si>
+  <si>
+    <t>68.42 %</t>
+  </si>
+  <si>
+    <t>34.52 %</t>
+  </si>
+  <si>
     <t>3407 Jerome Ave</t>
   </si>
   <si>
+    <t>72.36 %</t>
+  </si>
+  <si>
+    <t>64.29 %</t>
+  </si>
+  <si>
+    <t>24.77 %</t>
+  </si>
+  <si>
+    <t>21.34 %</t>
+  </si>
+  <si>
     <t>74 Beekman Ave</t>
   </si>
   <si>
     <t>Sleepy Hollow</t>
   </si>
   <si>
+    <t>56.92 %</t>
+  </si>
+  <si>
+    <t>23.17 %</t>
+  </si>
+  <si>
+    <t>15.84 %</t>
+  </si>
+  <si>
     <t>98 East Post Rd.</t>
   </si>
   <si>
     <t>White Plains</t>
   </si>
   <si>
+    <t>86.27 %</t>
+  </si>
+  <si>
+    <t>69.23 %</t>
+  </si>
+  <si>
+    <t>14.92 %</t>
+  </si>
+  <si>
+    <t>7.88 %</t>
+  </si>
+  <si>
     <t>30 S Main Street</t>
   </si>
   <si>
     <t>Port Chester</t>
   </si>
   <si>
+    <t>68.87 %</t>
+  </si>
+  <si>
+    <t>76.92 %</t>
+  </si>
+  <si>
+    <t>22.02 %</t>
+  </si>
+  <si>
+    <t>15.73 %</t>
+  </si>
+  <si>
     <t>100 Main St</t>
   </si>
   <si>
+    <t>77.53 %</t>
+  </si>
+  <si>
+    <t>72.58 %</t>
+  </si>
+  <si>
+    <t>38.30 %</t>
+  </si>
+  <si>
+    <t>29.19 %</t>
+  </si>
+  <si>
     <t>646 Main st</t>
   </si>
   <si>
     <t>Poughkeepsie</t>
   </si>
   <si>
+    <t>80.77 %</t>
+  </si>
+  <si>
+    <t>87.88 %</t>
+  </si>
+  <si>
+    <t>26.42 %</t>
+  </si>
+  <si>
+    <t>17.39 %</t>
+  </si>
+  <si>
     <t>2001 south rd</t>
   </si>
   <si>
+    <t>81.16 %</t>
+  </si>
+  <si>
+    <t>78.05 %</t>
+  </si>
+  <si>
+    <t>96.39 %</t>
+  </si>
+  <si>
+    <t>88.89 %</t>
+  </si>
+  <si>
     <t>105 North Division St</t>
   </si>
   <si>
     <t>Peekskill</t>
   </si>
   <si>
+    <t>81.37 %</t>
+  </si>
+  <si>
+    <t>73.47 %</t>
+  </si>
+  <si>
+    <t>43.27 %</t>
+  </si>
+  <si>
+    <t>36.89 %</t>
+  </si>
+  <si>
     <t>152 N. Main st</t>
   </si>
   <si>
+    <t>62.71 %</t>
+  </si>
+  <si>
+    <t>78.13 %</t>
+  </si>
+  <si>
+    <t>21.52 %</t>
+  </si>
+  <si>
+    <t>18.95 %</t>
+  </si>
+  <si>
     <t>51 Burnett Blvd</t>
   </si>
   <si>
+    <t>79.37 %</t>
+  </si>
+  <si>
+    <t>63.64 %</t>
+  </si>
+  <si>
+    <t>46.52 %</t>
+  </si>
+  <si>
+    <t>25.29 %</t>
+  </si>
+  <si>
     <t>1582 Route 9</t>
   </si>
   <si>
     <t>Wappingers Falls</t>
   </si>
   <si>
+    <t>72.73 %</t>
+  </si>
+  <si>
+    <t>28.68 %</t>
+  </si>
+  <si>
+    <t>32.00 %</t>
+  </si>
+  <si>
     <t>1863 Main St.</t>
   </si>
   <si>
+    <t>86.96 %</t>
+  </si>
+  <si>
     <t>403 Main Street</t>
+  </si>
+  <si>
+    <t>73.89 %</t>
+  </si>
+  <si>
+    <t>69.62 %</t>
+  </si>
+  <si>
+    <t>44.11 %</t>
+  </si>
+  <si>
+    <t>41.14 %</t>
   </si>
 </sst>
 </file>
@@ -723,14 +1271,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="J2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>11016</v>
@@ -744,20 +1304,20 @@
       <c r="I3">
         <v>5965</v>
       </c>
-      <c r="J3">
-        <v>0.6714510286378238</v>
-      </c>
-      <c r="K3">
-        <v>0.7155071248952222</v>
-      </c>
-      <c r="L3">
-        <v>0.2186092066601371</v>
+      <c r="J3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" t="s">
+        <v>6</v>
       </c>
       <c r="M3">
         <v>33462</v>
       </c>
-      <c r="N3">
-        <v>0.16804136034905265</v>
+      <c r="N3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="6:14" x14ac:dyDescent="0.25">
@@ -773,64 +1333,61 @@
       <c r="I4">
         <v>5965</v>
       </c>
-      <c r="J4">
-        <v>0.6714510286378238</v>
-      </c>
-      <c r="K4">
-        <v>0.7155071248952222</v>
-      </c>
-      <c r="L4">
-        <v>0.2186092066601371</v>
+      <c r="J4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" t="s">
+        <v>6</v>
       </c>
       <c r="M4">
         <v>33462</v>
       </c>
-      <c r="N4">
-        <v>0.16804136034905265</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
+      <c r="N4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J5" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="K5" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="L5" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="M5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N5" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
@@ -858,20 +1415,20 @@
       <c r="I6">
         <v>22</v>
       </c>
-      <c r="J6">
-        <v>0.70175438596491</v>
-      </c>
-      <c r="K6">
-        <v>0.68181818181818</v>
-      </c>
-      <c r="L6">
-        <v>0.15102639296187</v>
+      <c r="J6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" t="s">
+        <v>23</v>
       </c>
       <c r="M6">
         <v>290</v>
       </c>
-      <c r="N6">
-        <v>0.07241379310344</v>
+      <c r="N6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
@@ -879,13 +1436,13 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F7">
         <v>110</v>
@@ -899,20 +1456,20 @@
       <c r="I7">
         <v>46</v>
       </c>
-      <c r="J7">
-        <v>0.72477064220183</v>
-      </c>
-      <c r="K7">
-        <v>0.76086956521739</v>
-      </c>
-      <c r="L7">
-        <v>0.47629796839729</v>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" t="s">
+        <v>30</v>
       </c>
       <c r="M7">
         <v>166</v>
       </c>
-      <c r="N7">
-        <v>0.25301204819277</v>
+      <c r="N7" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
@@ -920,13 +1477,13 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -940,20 +1497,20 @@
       <c r="I8">
         <v>33</v>
       </c>
-      <c r="J8">
-        <v>0.625</v>
-      </c>
-      <c r="K8">
-        <v>0.6060606060606</v>
-      </c>
-      <c r="L8">
-        <v>0.20819112627986</v>
+      <c r="J8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8" t="s">
+        <v>36</v>
       </c>
       <c r="M8">
         <v>114</v>
       </c>
-      <c r="N8">
-        <v>0.28947368421052</v>
+      <c r="N8" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
@@ -961,10 +1518,10 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E9" t="s">
         <v>20</v>
@@ -981,20 +1538,20 @@
       <c r="I9">
         <v>45</v>
       </c>
-      <c r="J9">
-        <v>0.65753424657534</v>
-      </c>
-      <c r="K9">
-        <v>0.55555555555555</v>
-      </c>
-      <c r="L9">
-        <v>0.27186311787072</v>
+      <c r="J9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" t="s">
+        <v>41</v>
+      </c>
+      <c r="L9" t="s">
+        <v>42</v>
       </c>
       <c r="M9">
         <v>196</v>
       </c>
-      <c r="N9">
-        <v>0.21938775510204</v>
+      <c r="N9" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
@@ -1002,10 +1559,10 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E10" t="s">
         <v>20</v>
@@ -1022,20 +1579,20 @@
       <c r="I10">
         <v>43</v>
       </c>
-      <c r="J10">
-        <v>0.73949579831932</v>
-      </c>
-      <c r="K10">
-        <v>0.76744186046511</v>
-      </c>
-      <c r="L10">
-        <v>0.25279642058165</v>
+      <c r="J10" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" t="s">
+        <v>46</v>
+      </c>
+      <c r="L10" t="s">
+        <v>47</v>
       </c>
       <c r="M10">
         <v>177</v>
       </c>
-      <c r="N10">
-        <v>0.20338983050847</v>
+      <c r="N10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
@@ -1043,10 +1600,10 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E11" t="s">
         <v>20</v>
@@ -1063,20 +1620,20 @@
       <c r="I11">
         <v>11</v>
       </c>
-      <c r="J11">
-        <v>0.62790697674418</v>
-      </c>
-      <c r="K11">
-        <v>0.81818181818181</v>
-      </c>
-      <c r="L11">
-        <v>0.44230769230769</v>
+      <c r="J11" t="s">
+        <v>50</v>
+      </c>
+      <c r="K11" t="s">
+        <v>51</v>
+      </c>
+      <c r="L11" t="s">
+        <v>52</v>
       </c>
       <c r="M11">
         <v>54</v>
       </c>
-      <c r="N11">
-        <v>0.2037037037037</v>
+      <c r="N11" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
@@ -1084,10 +1641,10 @@
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E12" t="s">
         <v>20</v>
@@ -1104,20 +1661,20 @@
       <c r="I12">
         <v>43</v>
       </c>
-      <c r="J12">
-        <v>0.72631578947368</v>
-      </c>
-      <c r="K12">
-        <v>0.65116279069767</v>
-      </c>
-      <c r="L12">
-        <v>0.19654427645788</v>
+      <c r="J12" t="s">
+        <v>55</v>
+      </c>
+      <c r="K12" t="s">
+        <v>56</v>
+      </c>
+      <c r="L12" t="s">
+        <v>57</v>
       </c>
       <c r="M12">
         <v>202</v>
       </c>
-      <c r="N12">
-        <v>0.21287128712871</v>
+      <c r="N12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
@@ -1125,10 +1682,10 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E13" t="s">
         <v>20</v>
@@ -1145,20 +1702,20 @@
       <c r="I13">
         <v>65</v>
       </c>
-      <c r="J13">
-        <v>0.77848101265822</v>
-      </c>
-      <c r="K13">
-        <v>0.66153846153846</v>
-      </c>
-      <c r="L13">
-        <v>0.28714859437751</v>
+      <c r="J13" t="s">
+        <v>60</v>
+      </c>
+      <c r="K13" t="s">
+        <v>61</v>
+      </c>
+      <c r="L13" t="s">
+        <v>62</v>
       </c>
       <c r="M13">
         <v>206</v>
       </c>
-      <c r="N13">
-        <v>0.28640776699029</v>
+      <c r="N13" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
@@ -1166,10 +1723,10 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E14" t="s">
         <v>20</v>
@@ -1186,20 +1743,20 @@
       <c r="I14">
         <v>32</v>
       </c>
-      <c r="J14">
-        <v>0.69512195121951</v>
-      </c>
-      <c r="K14">
-        <v>0.75</v>
-      </c>
-      <c r="L14">
-        <v>0.37878787878787</v>
+      <c r="J14" t="s">
+        <v>65</v>
+      </c>
+      <c r="K14" t="s">
+        <v>66</v>
+      </c>
+      <c r="L14" t="s">
+        <v>67</v>
       </c>
       <c r="M14">
         <v>84</v>
       </c>
-      <c r="N14">
-        <v>0.36904761904761</v>
+      <c r="N14" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
@@ -1207,10 +1764,10 @@
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="E15" t="s">
         <v>20</v>
@@ -1227,20 +1784,20 @@
       <c r="I15">
         <v>43</v>
       </c>
-      <c r="J15">
-        <v>0.6144578313253</v>
-      </c>
-      <c r="K15">
-        <v>0.62790697674418</v>
-      </c>
-      <c r="L15">
-        <v>0.42543859649122</v>
+      <c r="J15" t="s">
+        <v>71</v>
+      </c>
+      <c r="K15" t="s">
+        <v>50</v>
+      </c>
+      <c r="L15" t="s">
+        <v>72</v>
       </c>
       <c r="M15">
         <v>93</v>
       </c>
-      <c r="N15">
-        <v>0.43010752688172</v>
+      <c r="N15" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
@@ -1248,10 +1805,10 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="E16" t="s">
         <v>20</v>
@@ -1268,20 +1825,20 @@
       <c r="I16">
         <v>35</v>
       </c>
-      <c r="J16">
-        <v>0.8235294117647</v>
-      </c>
-      <c r="K16">
-        <v>0.77142857142857</v>
-      </c>
-      <c r="L16">
-        <v>0.26161369193154</v>
+      <c r="J16" t="s">
+        <v>75</v>
+      </c>
+      <c r="K16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L16" t="s">
+        <v>77</v>
       </c>
       <c r="M16">
         <v>157</v>
       </c>
-      <c r="N16">
-        <v>0.22292993630573</v>
+      <c r="N16" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
@@ -1289,13 +1846,13 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="D17" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="E17" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="F17">
         <v>61</v>
@@ -1309,20 +1866,20 @@
       <c r="I17">
         <v>18</v>
       </c>
-      <c r="J17">
-        <v>0.82051282051282</v>
-      </c>
-      <c r="K17">
-        <v>0.72222222222222</v>
-      </c>
-      <c r="L17">
-        <v>0.62758620689655</v>
+      <c r="J17" t="s">
+        <v>82</v>
+      </c>
+      <c r="K17" t="s">
+        <v>83</v>
+      </c>
+      <c r="L17" t="s">
+        <v>84</v>
       </c>
       <c r="M17">
         <v>48</v>
       </c>
-      <c r="N17">
-        <v>0.375</v>
+      <c r="N17" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
@@ -1330,10 +1887,10 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="D18" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="E18" t="s">
         <v>20</v>
@@ -1350,20 +1907,20 @@
       <c r="I18">
         <v>64</v>
       </c>
-      <c r="J18">
-        <v>0.624</v>
-      </c>
-      <c r="K18">
-        <v>0.6875</v>
-      </c>
-      <c r="L18">
-        <v>0.45578231292517</v>
+      <c r="J18" t="s">
+        <v>88</v>
+      </c>
+      <c r="K18" t="s">
+        <v>89</v>
+      </c>
+      <c r="L18" t="s">
+        <v>90</v>
       </c>
       <c r="M18">
         <v>126</v>
       </c>
-      <c r="N18">
-        <v>0.46031746031746</v>
+      <c r="N18" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
@@ -1371,10 +1928,10 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="D19" t="s">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="E19" t="s">
         <v>20</v>
@@ -1391,20 +1948,20 @@
       <c r="I19">
         <v>31</v>
       </c>
-      <c r="J19">
-        <v>0.74444444444444</v>
-      </c>
-      <c r="K19">
-        <v>0.77419354838709</v>
-      </c>
-      <c r="L19">
-        <v>0.35858585858585</v>
+      <c r="J19" t="s">
+        <v>94</v>
+      </c>
+      <c r="K19" t="s">
+        <v>95</v>
+      </c>
+      <c r="L19" t="s">
+        <v>96</v>
       </c>
       <c r="M19">
         <v>78</v>
       </c>
-      <c r="N19">
-        <v>0.35897435897435</v>
+      <c r="N19" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
@@ -1412,10 +1969,10 @@
         <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="D20" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="E20" t="s">
         <v>20</v>
@@ -1432,20 +1989,20 @@
       <c r="I20">
         <v>38</v>
       </c>
-      <c r="J20">
-        <v>0.8</v>
-      </c>
-      <c r="K20">
-        <v>0.63157894736842</v>
-      </c>
-      <c r="L20">
-        <v>0.4071661237785</v>
+      <c r="J20" t="s">
+        <v>100</v>
+      </c>
+      <c r="K20" t="s">
+        <v>101</v>
+      </c>
+      <c r="L20" t="s">
+        <v>102</v>
       </c>
       <c r="M20">
         <v>112</v>
       </c>
-      <c r="N20">
-        <v>0.28571428571428</v>
+      <c r="N20" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
@@ -1453,10 +2010,10 @@
         <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="D21" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="E21" t="s">
         <v>20</v>
@@ -1473,20 +2030,20 @@
       <c r="I21">
         <v>53</v>
       </c>
-      <c r="J21">
-        <v>0.65942028985507</v>
-      </c>
-      <c r="K21">
-        <v>0.67924528301886</v>
-      </c>
-      <c r="L21">
-        <v>0.39573459715639</v>
+      <c r="J21" t="s">
+        <v>106</v>
+      </c>
+      <c r="K21" t="s">
+        <v>107</v>
+      </c>
+      <c r="L21" t="s">
+        <v>108</v>
       </c>
       <c r="M21">
         <v>153</v>
       </c>
-      <c r="N21">
-        <v>0.30718954248366</v>
+      <c r="N21" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
@@ -1494,10 +2051,10 @@
         <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
+        <v>110</v>
       </c>
       <c r="D22" t="s">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="E22" t="s">
         <v>20</v>
@@ -1514,20 +2071,20 @@
       <c r="I22">
         <v>59</v>
       </c>
-      <c r="J22">
-        <v>0.54054054054054</v>
-      </c>
-      <c r="K22">
-        <v>0.76271186440677</v>
-      </c>
-      <c r="L22">
-        <v>0.31232876712328</v>
+      <c r="J22" t="s">
+        <v>111</v>
+      </c>
+      <c r="K22" t="s">
+        <v>112</v>
+      </c>
+      <c r="L22" t="s">
+        <v>113</v>
       </c>
       <c r="M22">
         <v>144</v>
       </c>
-      <c r="N22">
-        <v>0.36805555555555</v>
+      <c r="N22" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
@@ -1535,10 +2092,10 @@
         <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
+        <v>115</v>
       </c>
       <c r="D23" t="s">
-        <v>49</v>
+        <v>116</v>
       </c>
       <c r="E23" t="s">
         <v>20</v>
@@ -1555,20 +2112,20 @@
       <c r="I23">
         <v>120</v>
       </c>
-      <c r="J23">
-        <v>0.74836601307189</v>
-      </c>
-      <c r="K23">
-        <v>0.79166666666666</v>
-      </c>
-      <c r="L23">
-        <v>0.42279792746113</v>
+      <c r="J23" t="s">
+        <v>117</v>
+      </c>
+      <c r="K23" t="s">
+        <v>118</v>
+      </c>
+      <c r="L23" t="s">
+        <v>119</v>
       </c>
       <c r="M23">
         <v>372</v>
       </c>
-      <c r="N23">
-        <v>0.29301075268817</v>
+      <c r="N23" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
@@ -1576,10 +2133,10 @@
         <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="D24" t="s">
-        <v>51</v>
+        <v>122</v>
       </c>
       <c r="E24" t="s">
         <v>20</v>
@@ -1596,20 +2153,20 @@
       <c r="I24">
         <v>33</v>
       </c>
-      <c r="J24">
-        <v>0.85714285714285</v>
-      </c>
-      <c r="K24">
-        <v>0.69696969696969</v>
-      </c>
-      <c r="L24">
-        <v>0.24630541871921</v>
+      <c r="J24" t="s">
+        <v>123</v>
+      </c>
+      <c r="K24" t="s">
+        <v>124</v>
+      </c>
+      <c r="L24" t="s">
+        <v>125</v>
       </c>
       <c r="M24">
         <v>126</v>
       </c>
-      <c r="N24">
-        <v>0.26190476190476</v>
+      <c r="N24" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
@@ -1617,10 +2174,10 @@
         <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>127</v>
       </c>
       <c r="D25" t="s">
-        <v>53</v>
+        <v>128</v>
       </c>
       <c r="E25" t="s">
         <v>20</v>
@@ -1637,20 +2194,20 @@
       <c r="I25">
         <v>34</v>
       </c>
-      <c r="J25">
-        <v>0.77906976744186</v>
-      </c>
-      <c r="K25">
-        <v>0.91176470588235</v>
-      </c>
-      <c r="L25">
-        <v>0.31062670299727</v>
+      <c r="J25" t="s">
+        <v>129</v>
+      </c>
+      <c r="K25" t="s">
+        <v>130</v>
+      </c>
+      <c r="L25" t="s">
+        <v>131</v>
       </c>
       <c r="M25">
         <v>132</v>
       </c>
-      <c r="N25">
-        <v>0.21212121212121</v>
+      <c r="N25" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
@@ -1658,10 +2215,10 @@
         <v>17</v>
       </c>
       <c r="C26" t="s">
-        <v>54</v>
+        <v>133</v>
       </c>
       <c r="D26" t="s">
-        <v>53</v>
+        <v>128</v>
       </c>
       <c r="E26" t="s">
         <v>20</v>
@@ -1678,20 +2235,20 @@
       <c r="I26">
         <v>46</v>
       </c>
-      <c r="J26">
-        <v>0.7841726618705</v>
-      </c>
-      <c r="K26">
-        <v>0.7391304347826</v>
-      </c>
-      <c r="L26">
-        <v>0.31721470019342</v>
+      <c r="J26" t="s">
+        <v>134</v>
+      </c>
+      <c r="K26" t="s">
+        <v>135</v>
+      </c>
+      <c r="L26" t="s">
+        <v>136</v>
       </c>
       <c r="M26">
         <v>222</v>
       </c>
-      <c r="N26">
-        <v>0.2072072072072</v>
+      <c r="N26" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
@@ -1699,13 +2256,13 @@
         <v>17</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
+        <v>138</v>
       </c>
       <c r="D27" t="s">
-        <v>56</v>
+        <v>139</v>
       </c>
       <c r="E27" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F27">
         <v>67</v>
@@ -1719,20 +2276,20 @@
       <c r="I27">
         <v>33</v>
       </c>
-      <c r="J27">
-        <v>0.64814814814814</v>
-      </c>
-      <c r="K27">
-        <v>0.66666666666666</v>
-      </c>
-      <c r="L27">
-        <v>0.37444933920704</v>
+      <c r="J27" t="s">
+        <v>140</v>
+      </c>
+      <c r="K27" t="s">
+        <v>141</v>
+      </c>
+      <c r="L27" t="s">
+        <v>142</v>
       </c>
       <c r="M27">
         <v>83</v>
       </c>
-      <c r="N27">
-        <v>0.33734939759036</v>
+      <c r="N27" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
@@ -1740,13 +2297,13 @@
         <v>17</v>
       </c>
       <c r="C28" t="s">
-        <v>57</v>
+        <v>144</v>
       </c>
       <c r="D28" t="s">
-        <v>56</v>
+        <v>139</v>
       </c>
       <c r="E28" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F28">
         <v>87</v>
@@ -1760,20 +2317,20 @@
       <c r="I28">
         <v>37</v>
       </c>
-      <c r="J28">
-        <v>0.78703703703703</v>
-      </c>
-      <c r="K28">
-        <v>0.7027027027027</v>
-      </c>
-      <c r="L28">
-        <v>0.40579710144927</v>
+      <c r="J28" t="s">
+        <v>145</v>
+      </c>
+      <c r="K28" t="s">
+        <v>146</v>
+      </c>
+      <c r="L28" t="s">
+        <v>147</v>
       </c>
       <c r="M28">
         <v>87</v>
       </c>
-      <c r="N28">
-        <v>0.40229885057471</v>
+      <c r="N28" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
@@ -1781,10 +2338,10 @@
         <v>17</v>
       </c>
       <c r="C29" t="s">
-        <v>58</v>
+        <v>149</v>
       </c>
       <c r="D29" t="s">
-        <v>59</v>
+        <v>150</v>
       </c>
       <c r="E29" t="s">
         <v>20</v>
@@ -1801,20 +2358,20 @@
       <c r="I29">
         <v>30</v>
       </c>
-      <c r="J29">
-        <v>0.77669902912621</v>
-      </c>
-      <c r="K29">
-        <v>0.73333333333333</v>
-      </c>
-      <c r="L29">
-        <v>0.14711033274956</v>
+      <c r="J29" t="s">
+        <v>151</v>
+      </c>
+      <c r="K29" t="s">
+        <v>152</v>
+      </c>
+      <c r="L29" t="s">
+        <v>153</v>
       </c>
       <c r="M29">
         <v>218</v>
       </c>
-      <c r="N29">
-        <v>0.12844036697247</v>
+      <c r="N29" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
@@ -1822,13 +2379,13 @@
         <v>17</v>
       </c>
       <c r="C30" t="s">
-        <v>60</v>
+        <v>155</v>
       </c>
       <c r="D30" t="s">
-        <v>61</v>
+        <v>156</v>
       </c>
       <c r="E30" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="F30">
         <v>37</v>
@@ -1842,20 +2399,20 @@
       <c r="I30">
         <v>54</v>
       </c>
-      <c r="J30">
-        <v>0.81761006289308</v>
-      </c>
-      <c r="K30">
-        <v>0.61111111111111</v>
-      </c>
-      <c r="L30">
-        <v>0.17478731631863</v>
+      <c r="J30" t="s">
+        <v>157</v>
+      </c>
+      <c r="K30" t="s">
+        <v>158</v>
+      </c>
+      <c r="L30" t="s">
+        <v>159</v>
       </c>
       <c r="M30">
         <v>465</v>
       </c>
-      <c r="N30">
-        <v>0.11182795698924</v>
+      <c r="N30" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
@@ -1863,13 +2420,13 @@
         <v>17</v>
       </c>
       <c r="C31" t="s">
-        <v>62</v>
+        <v>161</v>
       </c>
       <c r="D31" t="s">
-        <v>63</v>
+        <v>162</v>
       </c>
       <c r="E31" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="F31">
         <v>48</v>
@@ -1883,20 +2440,20 @@
       <c r="I31">
         <v>20</v>
       </c>
-      <c r="J31">
-        <v>0.88571428571428</v>
-      </c>
-      <c r="K31">
-        <v>0.75</v>
-      </c>
-      <c r="L31">
-        <v>0.55555555555555</v>
+      <c r="J31" t="s">
+        <v>163</v>
+      </c>
+      <c r="K31" t="s">
+        <v>66</v>
+      </c>
+      <c r="L31" t="s">
+        <v>41</v>
       </c>
       <c r="M31">
         <v>43</v>
       </c>
-      <c r="N31">
-        <v>0.3953488372093</v>
+      <c r="N31" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
@@ -1904,13 +2461,13 @@
         <v>17</v>
       </c>
       <c r="C32" t="s">
-        <v>64</v>
+        <v>165</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>166</v>
       </c>
       <c r="E32" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -1924,20 +2481,20 @@
       <c r="I32">
         <v>70</v>
       </c>
-      <c r="J32">
-        <v>0.64406779661016</v>
-      </c>
-      <c r="K32">
-        <v>0.75714285714285</v>
-      </c>
-      <c r="L32">
-        <v>0.33691756272401</v>
+      <c r="J32" t="s">
+        <v>167</v>
+      </c>
+      <c r="K32" t="s">
+        <v>168</v>
+      </c>
+      <c r="L32" t="s">
+        <v>169</v>
       </c>
       <c r="M32">
         <v>211</v>
       </c>
-      <c r="N32">
-        <v>0.32227488151658</v>
+      <c r="N32" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
@@ -1945,10 +2502,10 @@
         <v>17</v>
       </c>
       <c r="C33" t="s">
-        <v>66</v>
+        <v>171</v>
       </c>
       <c r="D33" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="E33" t="s">
         <v>20</v>
@@ -1965,20 +2522,20 @@
       <c r="I33">
         <v>48</v>
       </c>
-      <c r="J33">
-        <v>0.77419354838709</v>
-      </c>
-      <c r="K33">
-        <v>0.70833333333333</v>
-      </c>
-      <c r="L33">
-        <v>0.50490196078431</v>
+      <c r="J33" t="s">
+        <v>95</v>
+      </c>
+      <c r="K33" t="s">
+        <v>172</v>
+      </c>
+      <c r="L33" t="s">
+        <v>173</v>
       </c>
       <c r="M33">
         <v>72</v>
       </c>
-      <c r="N33">
-        <v>0.625</v>
+      <c r="N33" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
@@ -1986,10 +2543,10 @@
         <v>17</v>
       </c>
       <c r="C34" t="s">
-        <v>67</v>
+        <v>174</v>
       </c>
       <c r="D34" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="E34" t="s">
         <v>20</v>
@@ -2006,20 +2563,20 @@
       <c r="I34">
         <v>145</v>
       </c>
-      <c r="J34">
-        <v>0.64187327823691</v>
-      </c>
-      <c r="K34">
-        <v>0.67586206896551</v>
-      </c>
-      <c r="L34">
-        <v>0.44226327944572</v>
+      <c r="J34" t="s">
+        <v>175</v>
+      </c>
+      <c r="K34" t="s">
+        <v>176</v>
+      </c>
+      <c r="L34" t="s">
+        <v>52</v>
       </c>
       <c r="M34">
         <v>365</v>
       </c>
-      <c r="N34">
-        <v>0.37534246575342</v>
+      <c r="N34" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
@@ -2027,10 +2584,10 @@
         <v>17</v>
       </c>
       <c r="C35" t="s">
-        <v>68</v>
+        <v>178</v>
       </c>
       <c r="D35" t="s">
-        <v>69</v>
+        <v>179</v>
       </c>
       <c r="E35" t="s">
         <v>20</v>
@@ -2047,20 +2604,20 @@
       <c r="I35">
         <v>30</v>
       </c>
-      <c r="J35">
-        <v>0.77027027027027</v>
-      </c>
-      <c r="K35">
-        <v>0.76666666666666</v>
-      </c>
-      <c r="L35">
-        <v>0.20671378091872</v>
+      <c r="J35" t="s">
+        <v>180</v>
+      </c>
+      <c r="K35" t="s">
+        <v>181</v>
+      </c>
+      <c r="L35" t="s">
+        <v>182</v>
       </c>
       <c r="M35">
         <v>225</v>
       </c>
-      <c r="N35">
-        <v>0.12</v>
+      <c r="N35" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.25">
@@ -2068,10 +2625,10 @@
         <v>17</v>
       </c>
       <c r="C36" t="s">
-        <v>70</v>
+        <v>184</v>
       </c>
       <c r="D36" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E36" t="s">
         <v>20</v>
@@ -2088,20 +2645,20 @@
       <c r="I36">
         <v>124</v>
       </c>
-      <c r="J36">
-        <v>0.75892857142857</v>
-      </c>
-      <c r="K36">
-        <v>0.64516129032258</v>
-      </c>
-      <c r="L36">
-        <v>0.58475689881734</v>
+      <c r="J36" t="s">
+        <v>185</v>
+      </c>
+      <c r="K36" t="s">
+        <v>186</v>
+      </c>
+      <c r="L36" t="s">
+        <v>187</v>
       </c>
       <c r="M36">
         <v>287</v>
       </c>
-      <c r="N36">
-        <v>0.40069686411149</v>
+      <c r="N36" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.25">
@@ -2109,10 +2666,10 @@
         <v>17</v>
       </c>
       <c r="C37" t="s">
-        <v>71</v>
+        <v>189</v>
       </c>
       <c r="D37" t="s">
-        <v>72</v>
+        <v>190</v>
       </c>
       <c r="E37" t="s">
         <v>20</v>
@@ -2129,20 +2686,20 @@
       <c r="I37">
         <v>61</v>
       </c>
-      <c r="J37">
-        <v>0.7984496124031</v>
-      </c>
-      <c r="K37">
-        <v>0.77049180327868</v>
-      </c>
-      <c r="L37">
-        <v>0.28629032258064</v>
+      <c r="J37" t="s">
+        <v>191</v>
+      </c>
+      <c r="K37" t="s">
+        <v>192</v>
+      </c>
+      <c r="L37" t="s">
+        <v>193</v>
       </c>
       <c r="M37">
         <v>264</v>
       </c>
-      <c r="N37">
-        <v>0.22348484848484</v>
+      <c r="N37" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
@@ -2150,10 +2707,10 @@
         <v>17</v>
       </c>
       <c r="C38" t="s">
-        <v>73</v>
+        <v>195</v>
       </c>
       <c r="D38" t="s">
-        <v>72</v>
+        <v>190</v>
       </c>
       <c r="E38" t="s">
         <v>20</v>
@@ -2170,20 +2727,20 @@
       <c r="I38">
         <v>68</v>
       </c>
-      <c r="J38">
-        <v>0.74166666666666</v>
-      </c>
-      <c r="K38">
-        <v>0.75</v>
-      </c>
-      <c r="L38">
-        <v>0.34328358208955</v>
+      <c r="J38" t="s">
+        <v>196</v>
+      </c>
+      <c r="K38" t="s">
+        <v>66</v>
+      </c>
+      <c r="L38" t="s">
+        <v>197</v>
       </c>
       <c r="M38">
         <v>217</v>
       </c>
-      <c r="N38">
-        <v>0.31336405529953</v>
+      <c r="N38" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.25">
@@ -2191,10 +2748,10 @@
         <v>17</v>
       </c>
       <c r="C39" t="s">
-        <v>74</v>
+        <v>199</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>190</v>
       </c>
       <c r="E39" t="s">
         <v>20</v>
@@ -2211,20 +2768,20 @@
       <c r="I39">
         <v>61</v>
       </c>
-      <c r="J39">
-        <v>0.76288659793814</v>
-      </c>
-      <c r="K39">
-        <v>0.65573770491803</v>
-      </c>
-      <c r="L39">
-        <v>0.3137614678899</v>
+      <c r="J39" t="s">
+        <v>200</v>
+      </c>
+      <c r="K39" t="s">
+        <v>201</v>
+      </c>
+      <c r="L39" t="s">
+        <v>202</v>
       </c>
       <c r="M39">
         <v>225</v>
       </c>
-      <c r="N39">
-        <v>0.26222222222222</v>
+      <c r="N39" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.25">
@@ -2232,10 +2789,10 @@
         <v>17</v>
       </c>
       <c r="C40" t="s">
-        <v>75</v>
+        <v>204</v>
       </c>
       <c r="D40" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E40" t="s">
         <v>20</v>
@@ -2252,20 +2809,20 @@
       <c r="I40">
         <v>34</v>
       </c>
-      <c r="J40">
-        <v>0.79279279279279</v>
-      </c>
-      <c r="K40">
-        <v>0.79411764705882</v>
-      </c>
-      <c r="L40">
-        <v>0.25188536953242</v>
+      <c r="J40" t="s">
+        <v>205</v>
+      </c>
+      <c r="K40" t="s">
+        <v>206</v>
+      </c>
+      <c r="L40" t="s">
+        <v>207</v>
       </c>
       <c r="M40">
         <v>240</v>
       </c>
-      <c r="N40">
-        <v>0.12916666666666</v>
+      <c r="N40" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.25">
@@ -2273,10 +2830,10 @@
         <v>17</v>
       </c>
       <c r="C41" t="s">
-        <v>76</v>
+        <v>209</v>
       </c>
       <c r="D41" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E41" t="s">
         <v>20</v>
@@ -2293,20 +2850,20 @@
       <c r="I41">
         <v>38</v>
       </c>
-      <c r="J41">
-        <v>0.78260869565217</v>
-      </c>
-      <c r="K41">
-        <v>0.68421052631578</v>
-      </c>
-      <c r="L41">
-        <v>0.3451536643026</v>
+      <c r="J41" t="s">
+        <v>210</v>
+      </c>
+      <c r="K41" t="s">
+        <v>211</v>
+      </c>
+      <c r="L41" t="s">
+        <v>212</v>
       </c>
       <c r="M41">
         <v>162</v>
       </c>
-      <c r="N41">
-        <v>0.2037037037037</v>
+      <c r="N41" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.25">
@@ -2314,10 +2871,10 @@
         <v>17</v>
       </c>
       <c r="C42" t="s">
-        <v>77</v>
+        <v>213</v>
       </c>
       <c r="D42" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E42" t="s">
         <v>20</v>
@@ -2334,20 +2891,20 @@
       <c r="I42">
         <v>56</v>
       </c>
-      <c r="J42">
-        <v>0.72357723577235</v>
-      </c>
-      <c r="K42">
-        <v>0.64285714285714</v>
-      </c>
-      <c r="L42">
-        <v>0.24772313296903</v>
+      <c r="J42" t="s">
+        <v>214</v>
+      </c>
+      <c r="K42" t="s">
+        <v>215</v>
+      </c>
+      <c r="L42" t="s">
+        <v>216</v>
       </c>
       <c r="M42">
         <v>239</v>
       </c>
-      <c r="N42">
-        <v>0.21338912133891</v>
+      <c r="N42" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.25">
@@ -2355,10 +2912,10 @@
         <v>17</v>
       </c>
       <c r="C43" t="s">
-        <v>78</v>
+        <v>218</v>
       </c>
       <c r="D43" t="s">
-        <v>79</v>
+        <v>219</v>
       </c>
       <c r="E43" t="s">
         <v>20</v>
@@ -2375,20 +2932,20 @@
       <c r="I43">
         <v>20</v>
       </c>
-      <c r="J43">
-        <v>0.56923076923076</v>
-      </c>
-      <c r="K43">
-        <v>0.75</v>
-      </c>
-      <c r="L43">
-        <v>0.23170731707317</v>
+      <c r="J43" t="s">
+        <v>220</v>
+      </c>
+      <c r="K43" t="s">
+        <v>66</v>
+      </c>
+      <c r="L43" t="s">
+        <v>221</v>
       </c>
       <c r="M43">
         <v>101</v>
       </c>
-      <c r="N43">
-        <v>0.15841584158415</v>
+      <c r="N43" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.25">
@@ -2396,10 +2953,10 @@
         <v>17</v>
       </c>
       <c r="C44" t="s">
-        <v>80</v>
+        <v>223</v>
       </c>
       <c r="D44" t="s">
-        <v>81</v>
+        <v>224</v>
       </c>
       <c r="E44" t="s">
         <v>20</v>
@@ -2416,20 +2973,20 @@
       <c r="I44">
         <v>13</v>
       </c>
-      <c r="J44">
-        <v>0.86274509803921</v>
-      </c>
-      <c r="K44">
-        <v>0.69230769230769</v>
-      </c>
-      <c r="L44">
-        <v>0.14920634920634</v>
+      <c r="J44" t="s">
+        <v>225</v>
+      </c>
+      <c r="K44" t="s">
+        <v>226</v>
+      </c>
+      <c r="L44" t="s">
+        <v>227</v>
       </c>
       <c r="M44">
         <v>165</v>
       </c>
-      <c r="N44">
-        <v>0.07878787878787</v>
+      <c r="N44" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.25">
@@ -2437,10 +2994,10 @@
         <v>17</v>
       </c>
       <c r="C45" t="s">
-        <v>82</v>
+        <v>229</v>
       </c>
       <c r="D45" t="s">
-        <v>83</v>
+        <v>230</v>
       </c>
       <c r="E45" t="s">
         <v>20</v>
@@ -2457,20 +3014,20 @@
       <c r="I45">
         <v>39</v>
       </c>
-      <c r="J45">
-        <v>0.68867924528301</v>
-      </c>
-      <c r="K45">
-        <v>0.76923076923076</v>
-      </c>
-      <c r="L45">
-        <v>0.22017045454545</v>
+      <c r="J45" t="s">
+        <v>231</v>
+      </c>
+      <c r="K45" t="s">
+        <v>232</v>
+      </c>
+      <c r="L45" t="s">
+        <v>233</v>
       </c>
       <c r="M45">
         <v>248</v>
       </c>
-      <c r="N45">
-        <v>0.15725806451612</v>
+      <c r="N45" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.25">
@@ -2478,10 +3035,10 @@
         <v>17</v>
       </c>
       <c r="C46" t="s">
-        <v>84</v>
+        <v>235</v>
       </c>
       <c r="D46" t="s">
-        <v>81</v>
+        <v>224</v>
       </c>
       <c r="E46" t="s">
         <v>20</v>
@@ -2498,20 +3055,20 @@
       <c r="I46">
         <v>62</v>
       </c>
-      <c r="J46">
-        <v>0.7752808988764</v>
-      </c>
-      <c r="K46">
-        <v>0.7258064516129</v>
-      </c>
-      <c r="L46">
-        <v>0.38297872340425</v>
+      <c r="J46" t="s">
+        <v>236</v>
+      </c>
+      <c r="K46" t="s">
+        <v>237</v>
+      </c>
+      <c r="L46" t="s">
+        <v>238</v>
       </c>
       <c r="M46">
         <v>209</v>
       </c>
-      <c r="N46">
-        <v>0.29186602870813</v>
+      <c r="N46" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.25">
@@ -2519,10 +3076,10 @@
         <v>17</v>
       </c>
       <c r="C47" t="s">
-        <v>85</v>
+        <v>240</v>
       </c>
       <c r="D47" t="s">
-        <v>86</v>
+        <v>241</v>
       </c>
       <c r="E47" t="s">
         <v>20</v>
@@ -2539,20 +3096,20 @@
       <c r="I47">
         <v>33</v>
       </c>
-      <c r="J47">
-        <v>0.8076923076923</v>
-      </c>
-      <c r="K47">
-        <v>0.87878787878787</v>
-      </c>
-      <c r="L47">
-        <v>0.26415094339622</v>
+      <c r="J47" t="s">
+        <v>242</v>
+      </c>
+      <c r="K47" t="s">
+        <v>243</v>
+      </c>
+      <c r="L47" t="s">
+        <v>244</v>
       </c>
       <c r="M47">
         <v>184</v>
       </c>
-      <c r="N47">
-        <v>0.17391304347826</v>
+      <c r="N47" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.25">
@@ -2560,10 +3117,10 @@
         <v>17</v>
       </c>
       <c r="C48" t="s">
-        <v>87</v>
+        <v>246</v>
       </c>
       <c r="D48" t="s">
-        <v>86</v>
+        <v>241</v>
       </c>
       <c r="E48" t="s">
         <v>20</v>
@@ -2580,20 +3137,20 @@
       <c r="I48">
         <v>41</v>
       </c>
-      <c r="J48">
-        <v>0.81159420289855</v>
-      </c>
-      <c r="K48">
-        <v>0.78048780487804</v>
-      </c>
-      <c r="L48">
-        <v>0.96385542168674</v>
+      <c r="J48" t="s">
+        <v>247</v>
+      </c>
+      <c r="K48" t="s">
+        <v>248</v>
+      </c>
+      <c r="L48" t="s">
+        <v>249</v>
       </c>
       <c r="M48">
         <v>45</v>
       </c>
-      <c r="N48">
-        <v>0.88888888888888</v>
+      <c r="N48" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.25">
@@ -2601,10 +3158,10 @@
         <v>17</v>
       </c>
       <c r="C49" t="s">
-        <v>88</v>
+        <v>251</v>
       </c>
       <c r="D49" t="s">
-        <v>89</v>
+        <v>252</v>
       </c>
       <c r="E49" t="s">
         <v>20</v>
@@ -2621,20 +3178,20 @@
       <c r="I49">
         <v>49</v>
       </c>
-      <c r="J49">
-        <v>0.81372549019607</v>
-      </c>
-      <c r="K49">
-        <v>0.73469387755102</v>
-      </c>
-      <c r="L49">
-        <v>0.4326923076923</v>
+      <c r="J49" t="s">
+        <v>253</v>
+      </c>
+      <c r="K49" t="s">
+        <v>254</v>
+      </c>
+      <c r="L49" t="s">
+        <v>255</v>
       </c>
       <c r="M49">
         <v>122</v>
       </c>
-      <c r="N49">
-        <v>0.36885245901639</v>
+      <c r="N49" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.25">
@@ -2642,10 +3199,10 @@
         <v>17</v>
       </c>
       <c r="C50" t="s">
-        <v>90</v>
+        <v>257</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>230</v>
       </c>
       <c r="E50" t="s">
         <v>20</v>
@@ -2662,20 +3219,20 @@
       <c r="I50">
         <v>32</v>
       </c>
-      <c r="J50">
-        <v>0.62711864406779</v>
-      </c>
-      <c r="K50">
-        <v>0.78125</v>
-      </c>
-      <c r="L50">
-        <v>0.21516393442622</v>
+      <c r="J50" t="s">
+        <v>258</v>
+      </c>
+      <c r="K50" t="s">
+        <v>259</v>
+      </c>
+      <c r="L50" t="s">
+        <v>260</v>
       </c>
       <c r="M50">
         <v>153</v>
       </c>
-      <c r="N50">
-        <v>0.18954248366013</v>
+      <c r="N50" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.25">
@@ -2683,10 +3240,10 @@
         <v>17</v>
       </c>
       <c r="C51" t="s">
-        <v>91</v>
+        <v>262</v>
       </c>
       <c r="D51" t="s">
-        <v>86</v>
+        <v>241</v>
       </c>
       <c r="E51" t="s">
         <v>20</v>
@@ -2703,20 +3260,20 @@
       <c r="I51">
         <v>22</v>
       </c>
-      <c r="J51">
-        <v>0.79365079365079</v>
-      </c>
-      <c r="K51">
-        <v>0.63636363636363</v>
-      </c>
-      <c r="L51">
-        <v>0.46521739130434</v>
+      <c r="J51" t="s">
+        <v>263</v>
+      </c>
+      <c r="K51" t="s">
+        <v>264</v>
+      </c>
+      <c r="L51" t="s">
+        <v>265</v>
       </c>
       <c r="M51">
         <v>87</v>
       </c>
-      <c r="N51">
-        <v>0.25287356321839</v>
+      <c r="N51" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.25">
@@ -2724,10 +3281,10 @@
         <v>17</v>
       </c>
       <c r="C52" t="s">
-        <v>92</v>
+        <v>267</v>
       </c>
       <c r="D52" t="s">
-        <v>93</v>
+        <v>268</v>
       </c>
       <c r="E52" t="s">
         <v>20</v>
@@ -2744,20 +3301,20 @@
       <c r="I52">
         <v>16</v>
       </c>
-      <c r="J52">
-        <v>0.72727272727272</v>
-      </c>
-      <c r="K52">
-        <v>0.625</v>
-      </c>
-      <c r="L52">
-        <v>0.28676470588235</v>
+      <c r="J52" t="s">
+        <v>269</v>
+      </c>
+      <c r="K52" t="s">
+        <v>34</v>
+      </c>
+      <c r="L52" t="s">
+        <v>270</v>
       </c>
       <c r="M52">
         <v>50</v>
       </c>
-      <c r="N52">
-        <v>0.32</v>
+      <c r="N52" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.25">
@@ -2765,10 +3322,10 @@
         <v>17</v>
       </c>
       <c r="C53" t="s">
-        <v>94</v>
+        <v>272</v>
       </c>
       <c r="D53" t="s">
-        <v>89</v>
+        <v>252</v>
       </c>
       <c r="E53" t="s">
         <v>20</v>
@@ -2785,20 +3342,20 @@
       <c r="I53">
         <v>23</v>
       </c>
-      <c r="J53">
-        <v>0.69696969696969</v>
-      </c>
-      <c r="K53">
-        <v>0.8695652173913</v>
-      </c>
-      <c r="L53">
-        <v>0.69696969696969</v>
+      <c r="J53" t="s">
+        <v>124</v>
+      </c>
+      <c r="K53" t="s">
+        <v>273</v>
+      </c>
+      <c r="L53" t="s">
+        <v>124</v>
       </c>
       <c r="M53">
         <v>36</v>
       </c>
-      <c r="N53">
-        <v>0.61111111111111</v>
+      <c r="N53" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.25">
@@ -2806,10 +3363,10 @@
         <v>17</v>
       </c>
       <c r="C54" t="s">
-        <v>95</v>
+        <v>274</v>
       </c>
       <c r="D54" t="s">
-        <v>86</v>
+        <v>241</v>
       </c>
       <c r="E54" t="s">
         <v>20</v>
@@ -2826,20 +3383,20 @@
       <c r="I54">
         <v>79</v>
       </c>
-      <c r="J54">
-        <v>0.73885350318471</v>
-      </c>
-      <c r="K54">
-        <v>0.69620253164556</v>
-      </c>
-      <c r="L54">
-        <v>0.44109589041095</v>
+      <c r="J54" t="s">
+        <v>275</v>
+      </c>
+      <c r="K54" t="s">
+        <v>276</v>
+      </c>
+      <c r="L54" t="s">
+        <v>277</v>
       </c>
       <c r="M54">
         <v>175</v>
       </c>
-      <c r="N54">
-        <v>0.41142857142857</v>
+      <c r="N54" t="s">
+        <v>278</v>
       </c>
     </row>
   </sheetData>
